--- a/MXIC_PCCS/Content/證照範本.xlsx
+++ b/MXIC_PCCS/Content/證照範本.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremypeng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremypeng\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,18 +48,254 @@
         </r>
       </text>
     </comment>
+    <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yichung Chang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2021/04/10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yichung Chang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2021/04/10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yichung Chang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2021/04/10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yichung Chang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2021/04/10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yichung Chang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2021/04/10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yichung Chang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2021/04/10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C32" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yichung Chang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2021/04/10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C36" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yichung Chang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2021/04/10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yichung Chang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2021/04/10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yichung Chang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2021/04/10</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="21">
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>張O瑋</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -89,6 +325,48 @@
   <si>
     <t>PO No.</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王詠蔚</t>
+  </si>
+  <si>
+    <t>張瀚瑋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王耀華</t>
+  </si>
+  <si>
+    <t>江振宇</t>
+  </si>
+  <si>
+    <t>江振宇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳德良</t>
+  </si>
+  <si>
+    <t>林修賢</t>
+  </si>
+  <si>
+    <t>林晨峴</t>
+  </si>
+  <si>
+    <t>徐丞昊</t>
+  </si>
+  <si>
+    <t>張詩源</t>
+  </si>
+  <si>
+    <t>彭銘輝</t>
+  </si>
+  <si>
+    <t>劉佳才</t>
+  </si>
+  <si>
+    <t>劉佳才</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -179,7 +457,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +467,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,9 +540,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -268,6 +549,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -276,7 +560,1247 @@
     <cellStyle name="一般 6 5" xfId="2"/>
     <cellStyle name="一般_2016  MXIC V 班表" xfId="3"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="132">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -701,10 +2225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -717,111 +2241,991 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1">
-        <v>1234567</v>
+        <v>4500090258</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>44366</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5">
       <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
         <v>44296</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5">
       <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
         <v>44509</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.5">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="C7" s="7">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19.5">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>44296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.5">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19.5">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7">
         <v>44359</v>
       </c>
     </row>
+    <row r="11" spans="1:3" ht="19.5">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19.5">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>44296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19.5">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19.5">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19.5">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19.5">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7">
+        <v>44296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19.5">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19.5">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="7">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="19.5">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19.5">
+      <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>44296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="19.5">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="19.5">
+      <c r="A22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="7">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="19.5">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7">
+        <v>44296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="19.5">
+      <c r="A25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="19.5">
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="7">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="19.5">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="19.5">
+      <c r="A28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>44296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="19.5">
+      <c r="A29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="19.5">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="7">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="19.5">
+      <c r="A31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="19.5">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="7">
+        <v>44296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="19.5">
+      <c r="A33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19.5">
+      <c r="A34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="7">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="19.5">
+      <c r="A35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="7">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="19.5">
+      <c r="A36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="7">
+        <v>44296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="19.5">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="7">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="19.5">
+      <c r="A38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="7">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="19.5">
+      <c r="A39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="19.5">
+      <c r="A40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="7">
+        <v>44296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="19.5">
+      <c r="A41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="7">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="19.5">
+      <c r="A42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="7">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="19.5">
+      <c r="A43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="7">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="19.5">
+      <c r="A44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="7">
+        <v>44296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="19.5">
+      <c r="A45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="7">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="19.5">
+      <c r="A46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="7">
+        <v>44359</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4">
+    <cfRule type="expression" dxfId="131" priority="127" stopIfTrue="1">
+      <formula>(C4&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="128" stopIfTrue="1">
+      <formula>(C4&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="129" stopIfTrue="1">
+      <formula>(C4&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="expression" dxfId="128" priority="130" stopIfTrue="1">
+      <formula>(C3&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="131" stopIfTrue="1">
+      <formula>(C3&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="132" stopIfTrue="1">
+      <formula>(C3&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="125" priority="124" stopIfTrue="1">
+      <formula>(C5&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="125" stopIfTrue="1">
+      <formula>(C5&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="126" stopIfTrue="1">
+      <formula>(C5&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="122" priority="121" stopIfTrue="1">
+      <formula>(C6&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="122" stopIfTrue="1">
+      <formula>(C6&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="123" stopIfTrue="1">
+      <formula>(C6&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="119" priority="115" stopIfTrue="1">
+      <formula>(C8&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="116" stopIfTrue="1">
+      <formula>(C8&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="117" stopIfTrue="1">
+      <formula>(C8&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="116" priority="118" stopIfTrue="1">
+      <formula>(C7&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="119" stopIfTrue="1">
+      <formula>(C7&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="120" stopIfTrue="1">
+      <formula>(C7&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="expression" dxfId="113" priority="112" stopIfTrue="1">
+      <formula>(C9&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="113" stopIfTrue="1">
+      <formula>(C9&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="114" stopIfTrue="1">
+      <formula>(C9&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="expression" dxfId="110" priority="109" stopIfTrue="1">
+      <formula>(C10&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="110" stopIfTrue="1">
+      <formula>(C10&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="111" stopIfTrue="1">
+      <formula>(C10&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="107" priority="103" stopIfTrue="1">
+      <formula>(C12&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="104" stopIfTrue="1">
+      <formula>(C12&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="105" stopIfTrue="1">
+      <formula>(C12&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="104" priority="106" stopIfTrue="1">
+      <formula>(C11&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="107" stopIfTrue="1">
+      <formula>(C11&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="108" stopIfTrue="1">
+      <formula>(C11&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="101" priority="100" stopIfTrue="1">
+      <formula>(C13&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="101" stopIfTrue="1">
+      <formula>(C13&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="102" stopIfTrue="1">
+      <formula>(C13&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="98" priority="97" stopIfTrue="1">
+      <formula>(C14&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="98" stopIfTrue="1">
+      <formula>(C14&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="99" stopIfTrue="1">
+      <formula>(C14&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="95" priority="91" stopIfTrue="1">
+      <formula>(C16&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="92" stopIfTrue="1">
+      <formula>(C16&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="93" stopIfTrue="1">
+      <formula>(C16&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="92" priority="94" stopIfTrue="1">
+      <formula>(C15&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="95" stopIfTrue="1">
+      <formula>(C15&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="96" stopIfTrue="1">
+      <formula>(C15&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="89" priority="88" stopIfTrue="1">
+      <formula>(C17&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="89" stopIfTrue="1">
+      <formula>(C17&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="90" stopIfTrue="1">
+      <formula>(C17&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="86" priority="85" stopIfTrue="1">
+      <formula>(C18&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="86" stopIfTrue="1">
+      <formula>(C18&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="87" stopIfTrue="1">
+      <formula>(C18&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="83" priority="79" stopIfTrue="1">
+      <formula>(C20&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="80" stopIfTrue="1">
+      <formula>(C20&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="81" stopIfTrue="1">
+      <formula>(C20&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="80" priority="82" stopIfTrue="1">
+      <formula>(C19&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="83" stopIfTrue="1">
+      <formula>(C19&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="84" stopIfTrue="1">
+      <formula>(C19&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="77" priority="76" stopIfTrue="1">
+      <formula>(C21&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="77" stopIfTrue="1">
+      <formula>(C21&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="78" stopIfTrue="1">
+      <formula>(C21&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="74" priority="73" stopIfTrue="1">
+      <formula>(C22&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="74" stopIfTrue="1">
+      <formula>(C22&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="75" stopIfTrue="1">
+      <formula>(C22&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="71" priority="67" stopIfTrue="1">
+      <formula>(C24&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="68" stopIfTrue="1">
+      <formula>(C24&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="69" stopIfTrue="1">
+      <formula>(C24&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="68" priority="70" stopIfTrue="1">
+      <formula>(C23&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="71" stopIfTrue="1">
+      <formula>(C23&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="72" stopIfTrue="1">
+      <formula>(C23&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="65" priority="64" stopIfTrue="1">
+      <formula>(C25&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="65" stopIfTrue="1">
+      <formula>(C25&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="66" stopIfTrue="1">
+      <formula>(C25&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="62" priority="61" stopIfTrue="1">
+      <formula>(C26&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="62" stopIfTrue="1">
+      <formula>(C26&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="63" stopIfTrue="1">
+      <formula>(C26&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="59" priority="55" stopIfTrue="1">
+      <formula>(C28&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="56" stopIfTrue="1">
+      <formula>(C28&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="57" stopIfTrue="1">
+      <formula>(C28&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="56" priority="58" stopIfTrue="1">
+      <formula>(C27&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="59" stopIfTrue="1">
+      <formula>(C27&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="60" stopIfTrue="1">
+      <formula>(C27&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="53" priority="52" stopIfTrue="1">
+      <formula>(C29&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="53" stopIfTrue="1">
+      <formula>(C29&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="54" stopIfTrue="1">
+      <formula>(C29&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="50" priority="49" stopIfTrue="1">
+      <formula>(C30&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
+      <formula>(C30&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="51" stopIfTrue="1">
+      <formula>(C30&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="47" priority="43" stopIfTrue="1">
+      <formula>(C32&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="44" stopIfTrue="1">
+      <formula>(C32&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="45" stopIfTrue="1">
+      <formula>(C32&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="44" priority="46" stopIfTrue="1">
+      <formula>(C31&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="47" stopIfTrue="1">
+      <formula>(C31&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="48" stopIfTrue="1">
+      <formula>(C31&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="41" priority="40" stopIfTrue="1">
+      <formula>(C33&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
+      <formula>(C33&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="42" stopIfTrue="1">
+      <formula>(C33&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="38" priority="37" stopIfTrue="1">
+      <formula>(C34&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
+      <formula>(C34&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
+      <formula>(C34&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="35" priority="31" stopIfTrue="1">
+      <formula>(C36&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="32" stopIfTrue="1">
+      <formula>(C36&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="33" stopIfTrue="1">
+      <formula>(C36&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="32" priority="34" stopIfTrue="1">
+      <formula>(C35&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="35" stopIfTrue="1">
+      <formula>(C35&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="36" stopIfTrue="1">
+      <formula>(C35&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="29" priority="28" stopIfTrue="1">
+      <formula>(C37&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
+      <formula>(C37&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
+      <formula>(C37&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="26" priority="25" stopIfTrue="1">
+      <formula>(C38&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
+      <formula>(C38&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
+      <formula>(C38&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
+      <formula>(C40&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
+      <formula>(C40&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
+      <formula>(C40&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
+      <formula>(C39&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
+      <formula>(C39&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
+      <formula>(C39&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
+      <formula>(C41&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+      <formula>(C41&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
+      <formula>(C41&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+      <formula>(C42&lt;$B$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+      <formula>(C42&lt;$B$8+90)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+      <formula>(C42&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
     <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
-      <formula>(C4&lt;$B$8)</formula>
+      <formula>(C44&lt;$B$8)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
-      <formula>(C4&lt;$B$8+90)</formula>
+      <formula>(C44&lt;$B$8+90)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
-      <formula>(C4&lt;$B$8+180)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
+      <formula>(C44&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
     <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
-      <formula>(C3&lt;$B$8)</formula>
+      <formula>(C43&lt;$B$8)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
-      <formula>(C3&lt;$B$8+90)</formula>
+      <formula>(C43&lt;$B$8+90)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
-      <formula>(C3&lt;$B$8+180)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+      <formula>(C43&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
     <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
-      <formula>(C5&lt;$B$8)</formula>
+      <formula>(C45&lt;$B$8)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>(C5&lt;$B$8+90)</formula>
+      <formula>(C45&lt;$B$8+90)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
-      <formula>(C5&lt;$B$8+180)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+      <formula>(C45&lt;$B$8+180)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>(C6&lt;$B$8)</formula>
+      <formula>(C46&lt;$B$8)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>(C6&lt;$B$8+90)</formula>
+      <formula>(C46&lt;$B$8+90)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>(C6&lt;$B$8+180)</formula>
+      <formula>(C46&lt;$B$8+180)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
